--- a/Pipeline_2-Vulnerability/Supply Chain/Outputs/Data/Eurostat_Exp.xlsx
+++ b/Pipeline_2-Vulnerability/Supply Chain/Outputs/Data/Eurostat_Exp.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,11 +442,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C6">
-        <v>24313209.96</v>
+        <v>10299507.29</v>
       </c>
     </row>
     <row r="7">
@@ -457,11 +457,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C7">
-        <v>2577774.02</v>
+        <v>14013702.67</v>
       </c>
     </row>
     <row r="8">
@@ -472,11 +472,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C8">
-        <v>18641797.11</v>
+        <v>2577774.02</v>
       </c>
     </row>
     <row r="9">
@@ -487,11 +487,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C9">
-        <v>49289108.19</v>
+        <v>18641797.11</v>
       </c>
     </row>
     <row r="10">
@@ -502,11 +502,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C10">
-        <v>14190895.22</v>
+        <v>49289108.19</v>
       </c>
     </row>
     <row r="11">
@@ -517,11 +517,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C11">
-        <v>4667739.42</v>
+        <v>14190895.22</v>
       </c>
     </row>
     <row r="12">
@@ -532,26 +532,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C12">
-        <v>516667.51</v>
+        <v>4667739.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C13">
-        <v>182210949.65</v>
+        <v>516667.51</v>
       </c>
     </row>
     <row r="14">
@@ -562,11 +562,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14">
-        <v>28797742.93166666</v>
+        <v>182210949.65</v>
       </c>
     </row>
     <row r="15">
@@ -577,11 +577,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C15">
-        <v>5937572.898322981</v>
+        <v>28797742.93166666</v>
       </c>
     </row>
     <row r="16">
@@ -592,11 +592,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C16">
-        <v>5541329.24826087</v>
+        <v>5937572.898322981</v>
       </c>
     </row>
     <row r="17">
@@ -607,11 +607,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C17">
-        <v>54350907.043</v>
+        <v>5541329.24826087</v>
       </c>
     </row>
     <row r="18">
@@ -622,11 +622,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C18">
-        <v>3640142.98</v>
+        <v>37918419.195</v>
       </c>
     </row>
     <row r="19">
@@ -637,11 +637,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C19">
-        <v>23301458.57</v>
+        <v>16432487.848</v>
       </c>
     </row>
     <row r="20">
@@ -652,11 +652,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C20">
-        <v>39686782.33565217</v>
+        <v>3640142.98</v>
       </c>
     </row>
     <row r="21">
@@ -667,11 +667,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C21">
-        <v>8429204.0875</v>
+        <v>23301458.57</v>
       </c>
     </row>
     <row r="22">
@@ -682,11 +682,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C22">
-        <v>1980650.2</v>
+        <v>39686782.33565217</v>
       </c>
     </row>
     <row r="23">
@@ -697,41 +697,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C23">
-        <v>1030230.78</v>
+        <v>8429204.0875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C24">
-        <v>25592215.83</v>
+        <v>1980650.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C25">
-        <v>3224989.02</v>
+        <v>1030230.78</v>
       </c>
     </row>
     <row r="26">
@@ -742,11 +742,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C26">
-        <v>1746084.33</v>
+        <v>25592215.83</v>
       </c>
     </row>
     <row r="27">
@@ -757,11 +757,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C27">
-        <v>808302.04</v>
+        <v>3224989.02</v>
       </c>
     </row>
     <row r="28">
@@ -772,11 +772,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C28">
-        <v>3252478.62</v>
+        <v>1746084.33</v>
       </c>
     </row>
     <row r="29">
@@ -787,11 +787,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C29">
-        <v>974489.76</v>
+        <v>808302.04</v>
       </c>
     </row>
     <row r="30">
@@ -802,11 +802,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C30">
-        <v>6586750.71</v>
+        <v>1630713.39</v>
       </c>
     </row>
     <row r="31">
@@ -817,11 +817,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C31">
-        <v>5260224.57</v>
+        <v>1621765.23</v>
       </c>
     </row>
     <row r="32">
@@ -832,11 +832,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C32">
-        <v>2843213.33</v>
+        <v>974489.76</v>
       </c>
     </row>
     <row r="33">
@@ -847,11 +847,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C33">
-        <v>821346.37</v>
+        <v>6586750.71</v>
       </c>
     </row>
     <row r="34">
@@ -862,56 +862,56 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C34">
-        <v>74337.08</v>
+        <v>5260224.57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C35">
-        <v>863547.5699999999</v>
+        <v>2843213.33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C36">
-        <v>343293.62</v>
+        <v>821346.37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C37">
-        <v>1023.26</v>
+        <v>74337.08</v>
       </c>
     </row>
     <row r="38">
@@ -922,11 +922,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C38">
-        <v>3251.24</v>
+        <v>863547.5699999999</v>
       </c>
     </row>
     <row r="39">
@@ -937,11 +937,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C39">
-        <v>18911865.413</v>
+        <v>343293.62</v>
       </c>
     </row>
     <row r="40">
@@ -952,11 +952,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C40">
-        <v>2711946.7576</v>
+        <v>1023.26</v>
       </c>
     </row>
     <row r="41">
@@ -967,11 +967,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C41">
-        <v>10250305.80041667</v>
+        <v>3251.24</v>
       </c>
     </row>
     <row r="42">
@@ -982,11 +982,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C42">
-        <v>30184359.47648551</v>
+        <v>8755051.725</v>
       </c>
     </row>
     <row r="43">
@@ -997,11 +997,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C43">
-        <v>6856919.8175</v>
+        <v>10156813.688</v>
       </c>
     </row>
     <row r="44">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C44">
-        <v>2327.85</v>
+        <v>2711946.7576</v>
       </c>
     </row>
     <row r="45">
@@ -1027,71 +1027,71 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C45">
-        <v>6079.42</v>
+        <v>10250305.80041667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C46">
-        <v>112284380.45</v>
+        <v>30184359.47648551</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C47">
-        <v>4294206.2</v>
+        <v>6856919.8175</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C48">
-        <v>1861459.42</v>
+        <v>2327.85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C49">
-        <v>4990306.100000001</v>
+        <v>6079.42</v>
       </c>
     </row>
     <row r="50">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C50">
-        <v>12059728.44</v>
+        <v>112284380.45</v>
       </c>
     </row>
     <row r="51">
@@ -1117,11 +1117,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C51">
-        <v>2940241.45</v>
+        <v>4294206.2</v>
       </c>
     </row>
     <row r="52">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C52">
-        <v>4487291.14</v>
+        <v>1861459.42</v>
       </c>
     </row>
     <row r="53">
@@ -1147,11 +1147,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C53">
-        <v>60975832.96000001</v>
+        <v>4990306.100000001</v>
       </c>
     </row>
     <row r="54">
@@ -1162,11 +1162,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C54">
-        <v>17678502.01</v>
+        <v>4450584.65</v>
       </c>
     </row>
     <row r="55">
@@ -1177,11 +1177,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C55">
-        <v>2495681.93</v>
+        <v>7609143.790000001</v>
       </c>
     </row>
     <row r="56">
@@ -1192,86 +1192,86 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C56">
-        <v>501130.8</v>
+        <v>2940241.45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C57">
-        <v>1065631510.58</v>
+        <v>4487291.14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C58">
-        <v>52685268.93</v>
+        <v>60975832.96000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C59">
-        <v>11735484.54</v>
+        <v>17678502.01</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C60">
-        <v>30159018.12</v>
+        <v>2495681.93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C61">
-        <v>218134253.09</v>
+        <v>501130.8</v>
       </c>
     </row>
     <row r="62">
@@ -1282,11 +1282,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C62">
-        <v>15165049.68</v>
+        <v>1065631510.58</v>
       </c>
     </row>
     <row r="63">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C63">
-        <v>64691226.45</v>
+        <v>52685268.93</v>
       </c>
     </row>
     <row r="64">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C64">
-        <v>509447467.98</v>
+        <v>11735484.54</v>
       </c>
     </row>
     <row r="65">
@@ -1327,11 +1327,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C65">
-        <v>125081652.22</v>
+        <v>30159018.12</v>
       </c>
     </row>
     <row r="66">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C66">
-        <v>32141015.07</v>
+        <v>126289286.84</v>
       </c>
     </row>
     <row r="67">
@@ -1357,101 +1357,101 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C67">
-        <v>6391074.51</v>
+        <v>91844966.25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C68">
-        <v>66713736.35</v>
+        <v>15165049.68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C69">
-        <v>13864771.8</v>
+        <v>64691226.45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C70">
-        <v>892572.47</v>
+        <v>509447467.98</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C71">
-        <v>1012596.98</v>
+        <v>125081652.22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C72">
-        <v>24933619.903</v>
+        <v>32141015.07</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C73">
-        <v>703265.05</v>
+        <v>6391074.51</v>
       </c>
     </row>
     <row r="74">
@@ -1462,11 +1462,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C74">
-        <v>1573348.72</v>
+        <v>66713736.35</v>
       </c>
     </row>
     <row r="75">
@@ -1477,11 +1477,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C75">
-        <v>16388622.24</v>
+        <v>13864771.8</v>
       </c>
     </row>
     <row r="76">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C76">
-        <v>5326751.59</v>
+        <v>892572.47</v>
       </c>
     </row>
     <row r="77">
@@ -1507,11 +1507,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C77">
-        <v>2801214.82</v>
+        <v>1012596.98</v>
       </c>
     </row>
     <row r="78">
@@ -1522,116 +1522,116 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C78">
-        <v>314025.17</v>
+        <v>13136244.315</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C79">
-        <v>9512285.52</v>
+        <v>11797375.588</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C80">
-        <v>1062746.71</v>
+        <v>703265.05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C81">
-        <v>401375.58</v>
+        <v>1573348.72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C82">
-        <v>2707364.6</v>
+        <v>16388622.24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C83">
-        <v>971295.48</v>
+        <v>5326751.59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C84">
-        <v>266356.19</v>
+        <v>2801214.82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C85">
-        <v>77849.28999999999</v>
+        <v>314025.17</v>
       </c>
     </row>
     <row r="86">
@@ -1642,11 +1642,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C86">
-        <v>1950846.67</v>
+        <v>9512285.52</v>
       </c>
     </row>
     <row r="87">
@@ -1657,11 +1657,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C87">
-        <v>1526543.89</v>
+        <v>1062746.71</v>
       </c>
     </row>
     <row r="88">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C88">
-        <v>511150.77</v>
+        <v>401375.58</v>
       </c>
     </row>
     <row r="89">
@@ -1687,131 +1687,131 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C89">
-        <v>36756.37</v>
+        <v>2707364.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C90">
-        <v>35231214.62</v>
+        <v>570141.88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C91">
-        <v>5538445.859999999</v>
+        <v>401153.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C92">
-        <v>842491.1100000001</v>
+        <v>266356.19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C93">
-        <v>629932.46</v>
+        <v>77849.28999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C94">
-        <v>17801672.12</v>
+        <v>1950846.67</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C95">
-        <v>815884.3</v>
+        <v>1526543.89</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C96">
-        <v>5713761.47</v>
+        <v>511150.77</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C97">
-        <v>1718596.73</v>
+        <v>36756.37</v>
       </c>
     </row>
     <row r="98">
@@ -1822,11 +1822,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C98">
-        <v>1879742.01</v>
+        <v>35231214.62</v>
       </c>
     </row>
     <row r="99">
@@ -1837,11 +1837,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C99">
-        <v>160490.79</v>
+        <v>5538445.859999999</v>
       </c>
     </row>
     <row r="100">
@@ -1852,146 +1852,146 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C100">
-        <v>130197.76</v>
+        <v>842491.1100000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C101">
-        <v>232053850.86</v>
+        <v>629932.46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C102">
-        <v>33958422.80999999</v>
+        <v>15719930.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C103">
-        <v>12364401.82</v>
+        <v>2081742.02</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C104">
-        <v>7701911.279999999</v>
+        <v>815884.3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C105">
-        <v>62934009.38000001</v>
+        <v>5713761.47</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C106">
-        <v>7771978.27</v>
+        <v>1718596.73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C107">
-        <v>21095823.15</v>
+        <v>1879742.01</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C108">
-        <v>71241600.42</v>
+        <v>160490.79</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C109">
-        <v>11186922.1</v>
+        <v>130197.76</v>
       </c>
     </row>
     <row r="110">
@@ -2002,11 +2002,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C110">
-        <v>3207833.1</v>
+        <v>232053850.86</v>
       </c>
     </row>
     <row r="111">
@@ -2017,161 +2017,161 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C111">
-        <v>590948.52</v>
+        <v>33958422.80999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C112">
-        <v>63963995.37</v>
+        <v>12364401.82</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C113">
-        <v>3325744.272466667</v>
+        <v>7701911.279999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C114">
-        <v>1557783.775714286</v>
+        <v>44588065.12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C115">
-        <v>6531148.48826087</v>
+        <v>18345944.26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C116">
-        <v>24586545.623</v>
+        <v>7771978.27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C117">
-        <v>612404.34</v>
+        <v>21095823.15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C118">
-        <v>10250305.80041667</v>
+        <v>71241600.42</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C119">
-        <v>15709652.41</v>
+        <v>11186922.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C120">
-        <v>7100085.189999999</v>
+        <v>3207833.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C121">
-        <v>508786.38</v>
+        <v>590948.52</v>
       </c>
     </row>
     <row r="122">
@@ -2182,92 +2182,92 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C122">
-        <v>354587.08</v>
+        <v>63963995.37</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C123">
-        <v>339224253.5</v>
+        <v>3325744.272466667</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C124">
-        <v>48159639.51166667</v>
+        <v>1557783.775714286</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C125">
-        <v>4771408.455714285</v>
+        <v>6531148.48826087</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C126">
-        <v>8860618.109999999</v>
+        <v>12650837.365</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C127">
-        <v>87955685.05000001</v>
+        <v>11935708.258</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="C128">
-        <v>5075688.74</v>
+        <v>612404.34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2291,13 +2291,13 @@
         </is>
       </c>
       <c r="C129">
-        <v>20420046.01</v>
+        <v>10250305.80041667</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="C130">
-        <v>119116269.18</v>
+        <v>15709652.41</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2321,13 +2321,13 @@
         </is>
       </c>
       <c r="C131">
-        <v>25853924.66</v>
+        <v>7100085.189999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="C132">
-        <v>8833675.32</v>
+        <v>508786.38</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="C133">
-        <v>5096422.21</v>
+        <v>354587.08</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="C134">
-        <v>12397936.63</v>
+        <v>339224253.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2381,13 +2381,13 @@
         </is>
       </c>
       <c r="C135">
-        <v>1681957.391666667</v>
+        <v>48159639.51166667</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="C136">
-        <v>911597.6</v>
+        <v>4771408.455714285</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2411,1843 +2411,1843 @@
         </is>
       </c>
       <c r="C137">
-        <v>1664960.71</v>
+        <v>8860618.109999999</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C138">
-        <v>10457229.145</v>
+        <v>54897080.73</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C139">
-        <v>796263.28</v>
+        <v>33058604.32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C140">
-        <v>367399.76</v>
+        <v>5075688.74</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C141">
-        <v>2352176.9</v>
+        <v>20420046.01</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C142">
-        <v>1243787.85</v>
+        <v>119116269.18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C143">
-        <v>380222.26</v>
+        <v>25853924.66</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C144">
-        <v>160441.79</v>
+        <v>8833675.32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C145">
-        <v>79921347.97</v>
+        <v>5096422.21</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C146">
-        <v>6759601</v>
+        <v>12397936.63</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C147">
-        <v>1305725.23</v>
+        <v>1681957.391666667</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C148">
-        <v>2512745.24</v>
+        <v>911597.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C149">
-        <v>14648672.6</v>
+        <v>1664960.71</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C150">
-        <v>1315815.1</v>
+        <v>9128397.025</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C151">
-        <v>2728666.34</v>
+        <v>1328832.12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C152">
-        <v>29672926.89</v>
+        <v>796263.28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C153">
-        <v>19138763.68</v>
+        <v>367399.76</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C154">
-        <v>1678980.78</v>
+        <v>2352176.9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C155">
-        <v>159451.1</v>
+        <v>1243787.85</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C156">
-        <v>174177441.9</v>
+        <v>380222.26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C157">
-        <v>18450479.64166667</v>
+        <v>160441.79</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C158">
-        <v>152840.82</v>
+        <v>79921347.97</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C159">
-        <v>977669.1100000001</v>
+        <v>6759601</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C160">
-        <v>122444301.115</v>
+        <v>1305725.23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C161">
-        <v>512364.1</v>
+        <v>2512745.24</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C162">
-        <v>813934.95</v>
+        <v>7001411.09</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C163">
-        <v>10295217.24083333</v>
+        <v>7647261.51</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C164">
-        <v>16463733.4</v>
+        <v>1315815.1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C165">
-        <v>17265397.66</v>
+        <v>2728666.34</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C166">
-        <v>682554.21</v>
+        <v>29672926.89</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C167">
-        <v>431642608.48</v>
+        <v>19138763.68</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C168">
-        <v>38262370.98</v>
+        <v>1678980.78</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C169">
-        <v>38094524.03</v>
+        <v>159451.1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C170">
-        <v>11798816.81</v>
+        <v>174177441.9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C171">
-        <v>71865596.93000001</v>
+        <v>18450479.64166667</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C172">
-        <v>11340701.3</v>
+        <v>152840.82</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C173">
-        <v>36901805.41</v>
+        <v>977669.1100000001</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C174">
-        <v>163756604.89</v>
+        <v>41227527.555</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C175">
-        <v>33411510.73</v>
+        <v>81216773.56</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C176">
-        <v>24651301.99</v>
+        <v>512364.1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C177">
-        <v>1559375.42</v>
+        <v>813934.95</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C178">
-        <v>21459798.25</v>
+        <v>10295217.24083333</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C179">
-        <v>3159570.401666666</v>
+        <v>16463733.4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C180">
-        <v>2014701.255714286</v>
+        <v>17265397.66</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C181">
-        <v>1997280.54</v>
+        <v>682554.21</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C182">
-        <v>8902681.65</v>
+        <v>431642608.48</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C183">
-        <v>292322.39</v>
+        <v>38262370.98</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C184">
-        <v>24406.03</v>
+        <v>38094524.03</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C185">
-        <v>2435649.17</v>
+        <v>11798816.81</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C186">
-        <v>1179382.75</v>
+        <v>38183480.98</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C187">
-        <v>2643327.91</v>
+        <v>33682115.95</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C188">
-        <v>162318.68</v>
+        <v>11340701.3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C189">
-        <v>7609513.6</v>
+        <v>36901805.41</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C190">
-        <v>663900.9416666667</v>
+        <v>163756604.89</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C191">
-        <v>2267499.602608696</v>
+        <v>33411510.73</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C192">
-        <v>5383108.602010869</v>
+        <v>24651301.99</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C193">
-        <v>12376582.518</v>
+        <v>1559375.42</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C194">
-        <v>306446.42</v>
+        <v>21459798.25</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C195">
-        <v>1719218.37</v>
+        <v>3159570.401666666</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C196">
-        <v>31603081.2364855</v>
+        <v>2014701.255714286</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C197">
-        <v>14325840.9495</v>
+        <v>1997280.54</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C198">
-        <v>5085388.82515</v>
+        <v>7613220.64</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C199">
-        <v>11429.69</v>
+        <v>1289461.01</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C200">
-        <v>8210657.24</v>
+        <v>292322.39</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C201">
-        <v>986886.72</v>
+        <v>24406.03</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C202">
-        <v>212766.88</v>
+        <v>2435649.17</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C203">
-        <v>2784455.01</v>
+        <v>1179382.75</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C204">
-        <v>9919011.594999999</v>
+        <v>2643327.91</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C205">
-        <v>419951.4</v>
+        <v>162318.68</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C206">
-        <v>135921.78</v>
+        <v>7609513.6</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C207">
-        <v>1185885.54</v>
+        <v>663900.9416666667</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C208">
-        <v>882832.95</v>
+        <v>2267499.602608696</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C209">
-        <v>381985.03</v>
+        <v>5383108.602010869</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C210">
-        <v>30863.15</v>
+        <v>408529.3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C211">
-        <v>2087451.11</v>
+        <v>11968053.218</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C212">
-        <v>90807.14999999999</v>
+        <v>306446.42</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C213">
-        <v>4317964.504722981</v>
+        <v>1719218.37</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C214">
-        <v>2323510.69375</v>
+        <v>31603081.2364855</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C215">
-        <v>23160848.3742</v>
+        <v>14325840.9495</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C216">
-        <v>4785.89</v>
+        <v>5085388.82515</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>11429.69</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C218">
-        <v>184466.76</v>
+        <v>8210657.24</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C219">
-        <v>527017.64</v>
+        <v>986886.72</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C220">
-        <v>1826692.43875</v>
+        <v>212766.88</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C221">
-        <v>65963.52</v>
+        <v>2784455.01</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C222">
-        <v>248069895.46</v>
+        <v>9292370.244999999</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C223">
-        <v>43546939.69</v>
+        <v>626641.35</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C224">
-        <v>2442252.49</v>
+        <v>419951.4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C225">
-        <v>5237259.08</v>
+        <v>135921.78</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C226">
-        <v>98434046.46000001</v>
+        <v>1185885.54</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C227">
-        <v>1951209.22</v>
+        <v>882832.95</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C228">
-        <v>11332167.64</v>
+        <v>381985.03</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C229">
-        <v>58628479.89605217</v>
+        <v>30863.15</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C230">
-        <v>11442353.89</v>
+        <v>2087451.11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C231">
-        <v>3220383.17</v>
+        <v>90807.14999999999</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C232">
-        <v>4131507.41</v>
+        <v>4317964.504722981</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C233">
-        <v>191573272.57</v>
+        <v>2323510.69375</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C234">
-        <v>23668909.69</v>
+        <v>23011721.5842</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C235">
-        <v>3384181.31</v>
+        <v>149126.79</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C236">
-        <v>11261098.11</v>
+        <v>4785.89</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C237">
-        <v>30461845.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C238">
-        <v>5897754.94</v>
+        <v>184466.76</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C239">
-        <v>9783636.57</v>
+        <v>527017.64</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C240">
-        <v>62751385.95</v>
+        <v>1826692.43875</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C241">
-        <v>28658497.27</v>
+        <v>65963.52</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C242">
-        <v>11187720.36</v>
+        <v>248069895.46</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C243">
-        <v>4518243.14</v>
+        <v>43546939.69</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C244">
-        <v>55839198.61</v>
+        <v>2442252.49</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C245">
-        <v>5011419.091666667</v>
+        <v>5237259.08</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C246">
-        <v>7054456.95</v>
+        <v>85559130.52000001</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C247">
-        <v>5623641.51</v>
+        <v>12874915.94</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C248">
-        <v>17427579.225</v>
+        <v>1951209.22</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C249">
-        <v>2062897.71</v>
+        <v>11332167.64</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C250">
-        <v>2364201.85</v>
+        <v>58628479.89605217</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C251">
-        <v>14145464.85</v>
+        <v>11442353.89</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C252">
-        <v>3648690.92</v>
+        <v>3220383.17</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C253">
-        <v>2004181.48</v>
+        <v>4131507.41</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C254">
-        <v>114808.9</v>
+        <v>191573272.57</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C255">
-        <v>60776493.18</v>
+        <v>23668909.69</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C256">
-        <v>2802655.83</v>
+        <v>3384181.31</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C257">
-        <v>4096638.61</v>
+        <v>11261098.11</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C258">
-        <v>3002359.44</v>
+        <v>14054797.14</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C259">
-        <v>9362054.539999999</v>
+        <v>16407048.1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4256,13 +4256,13 @@
         </is>
       </c>
       <c r="C260">
-        <v>608247.6899999999</v>
+        <v>5897754.94</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4271,13 +4271,13 @@
         </is>
       </c>
       <c r="C261">
-        <v>4190460.38</v>
+        <v>9783636.57</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4286,13 +4286,13 @@
         </is>
       </c>
       <c r="C262">
-        <v>26625530.19</v>
+        <v>62751385.95</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4301,13 +4301,13 @@
         </is>
       </c>
       <c r="C263">
-        <v>7941774.99</v>
+        <v>28658497.27</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4316,13 +4316,13 @@
         </is>
       </c>
       <c r="C264">
-        <v>2110278.03</v>
+        <v>11187720.36</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4331,13 +4331,13 @@
         </is>
       </c>
       <c r="C265">
-        <v>36493.49</v>
+        <v>4518243.14</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C266">
-        <v>120045343.84</v>
+        <v>55839198.61</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C267">
-        <v>5125472.072466667</v>
+        <v>5011419.091666667</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4376,13 +4376,13 @@
         </is>
       </c>
       <c r="C268">
-        <v>4317964.504722981</v>
+        <v>7054456.95</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4391,441 +4391,846 @@
         </is>
       </c>
       <c r="C269">
-        <v>5383108.602010869</v>
+        <v>5623641.51</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C270">
-        <v>35935455.4322</v>
+        <v>12394128.125</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C271">
-        <v>2711946.7576</v>
+        <v>5033451.1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C272">
-        <v>10250305.80041667</v>
+        <v>2062897.71</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C273">
-        <v>41662499.4204</v>
+        <v>2364201.85</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C274">
-        <v>6356929.74</v>
+        <v>14145464.85</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C275">
-        <v>5085388.82515</v>
+        <v>3648690.92</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C276">
-        <v>1033230.814615385</v>
+        <v>2004181.48</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C277">
-        <v>35607319.66</v>
+        <v>114808.9</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C278">
-        <v>936474.01</v>
+        <v>60776493.18</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C279">
-        <v>689532.0900000001</v>
+        <v>2802655.83</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C280">
-        <v>1605713.63</v>
+        <v>4096638.61</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C281">
-        <v>21821452.093</v>
+        <v>3002359.44</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C282">
-        <v>633693.96</v>
+        <v>4178958.84</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C283">
-        <v>3038000.01</v>
+        <v>5183095.7</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C284">
-        <v>7770702.039999999</v>
+        <v>608247.6899999999</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C285">
-        <v>8310832.322</v>
+        <v>4190460.38</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C25+C28-C30</t>
         </is>
       </c>
       <c r="C286">
-        <v>605997.15</v>
+        <v>26625530.19</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C26-C27</t>
         </is>
       </c>
       <c r="C287">
-        <v>76358.12</v>
+        <v>7941774.99</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C31-C32</t>
         </is>
       </c>
       <c r="C288">
-        <v>59809086.61</v>
+        <v>2110278.03</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>C10-C12</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="C289">
-        <v>1820303.68</v>
+        <v>36493.49</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>C13-C15</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C290">
-        <v>886433.3200000001</v>
+        <v>120045343.84</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>C16-C18</t>
+          <t>C10-C12</t>
         </is>
       </c>
       <c r="C291">
-        <v>2341681.69</v>
+        <v>5125472.072466667</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>C19-C22</t>
+          <t>C13-C15</t>
         </is>
       </c>
       <c r="C292">
-        <v>8786195.23</v>
+        <v>4317964.504722981</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C16-C18</t>
         </is>
       </c>
       <c r="C293">
-        <v>1112940.76</v>
+        <v>5383108.602010869</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C19-C20</t>
         </is>
       </c>
       <c r="C294">
-        <v>6018167.5</v>
+        <v>23011721.5842</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>C25+C28-C30</t>
+          <t>C21-C22</t>
         </is>
       </c>
       <c r="C295">
-        <v>32373888.3</v>
+        <v>12923733.848</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>C26-C27</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="C296">
-        <v>5311400.43</v>
+        <v>2711946.7576</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>C31-C32</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="C297">
-        <v>1046340.35</v>
+        <v>10250305.80041667</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>C25+C28-C30</t>
+        </is>
+      </c>
+      <c r="C298">
+        <v>41662499.4204</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>C26-C27</t>
+        </is>
+      </c>
+      <c r="C299">
+        <v>6356929.74</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>C31-C32</t>
+        </is>
+      </c>
+      <c r="C300">
+        <v>5085388.82515</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="C301">
+        <v>1033230.814615385</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C302">
+        <v>35607319.66</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>C10-C12</t>
+        </is>
+      </c>
+      <c r="C303">
+        <v>936474.01</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>C13-C15</t>
+        </is>
+      </c>
+      <c r="C304">
+        <v>689532.0900000001</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>C16-C18</t>
+        </is>
+      </c>
+      <c r="C305">
+        <v>1605713.63</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>C19-C20</t>
+        </is>
+      </c>
+      <c r="C306">
+        <v>10233949.425</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>C21-C22</t>
+        </is>
+      </c>
+      <c r="C307">
+        <v>11587502.668</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="C308">
+        <v>633693.96</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>C24</t>
+        </is>
+      </c>
+      <c r="C309">
+        <v>3038000.01</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>C25+C28-C30</t>
+        </is>
+      </c>
+      <c r="C310">
+        <v>7770702.039999999</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>C26-C27</t>
+        </is>
+      </c>
+      <c r="C311">
+        <v>8310832.322</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>C31-C32</t>
+        </is>
+      </c>
+      <c r="C312">
+        <v>605997.15</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="C313">
+        <v>76358.12</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
           <t>SK</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C314">
+        <v>59809086.61</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>C10-C12</t>
+        </is>
+      </c>
+      <c r="C315">
+        <v>1820303.68</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>C13-C15</t>
+        </is>
+      </c>
+      <c r="C316">
+        <v>886433.3200000001</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>C16-C18</t>
+        </is>
+      </c>
+      <c r="C317">
+        <v>2341681.69</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>C19-C20</t>
+        </is>
+      </c>
+      <c r="C318">
+        <v>5111276.12</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>C21-C22</t>
+        </is>
+      </c>
+      <c r="C319">
+        <v>3674919.11</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="C320">
+        <v>1112940.76</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>C24</t>
+        </is>
+      </c>
+      <c r="C321">
+        <v>6018167.5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>C25+C28-C30</t>
+        </is>
+      </c>
+      <c r="C322">
+        <v>32373888.3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>C26-C27</t>
+        </is>
+      </c>
+      <c r="C323">
+        <v>5311400.43</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>C31-C32</t>
+        </is>
+      </c>
+      <c r="C324">
+        <v>1046340.35</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
         <is>
           <t>C33</t>
         </is>
       </c>
-      <c r="C298">
+      <c r="C325">
         <v>111735.35</v>
       </c>
     </row>
